--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -29,43 +29,43 @@
     <t>1 Тур</t>
   </si>
   <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Котов</t>
+  </si>
+  <si>
+    <t>Серов</t>
+  </si>
+  <si>
+    <t>Амелин</t>
+  </si>
+  <si>
+    <t>Белов</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Кротов</t>
+  </si>
+  <si>
     <t>пропуск</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Иванов</t>
   </si>
   <si>
     <t>Перов</t>
   </si>
   <si>
-    <t>Сидоров</t>
+    <t>Якин</t>
   </si>
   <si>
     <t>Уткин</t>
-  </si>
-  <si>
-    <t>Кротов</t>
-  </si>
-  <si>
-    <t>Якин</t>
-  </si>
-  <si>
-    <t>Амелин</t>
-  </si>
-  <si>
-    <t>Белов</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Серов</t>
-  </si>
-  <si>
-    <t>Петров</t>
-  </si>
-  <si>
-    <t>Котов</t>
   </si>
   <si>
     <t>2 Тур</t>
@@ -200,7 +200,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -209,7 +209,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="4">
@@ -220,7 +220,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>720.0</v>
+        <v>730.0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -229,7 +229,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="5">
@@ -240,7 +240,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>800.0</v>
+        <v>810.0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -249,7 +249,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>680.0</v>
+        <v>800.0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -269,7 +269,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>810.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -289,7 +289,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>730.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="8">
@@ -300,7 +300,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>840.0</v>
+        <v>750.0</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -309,7 +309,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="9">
@@ -325,7 +325,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -334,7 +334,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="11">
@@ -345,7 +345,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>730.0</v>
+        <v>750.0</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -354,7 +354,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>840.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="12">
@@ -365,7 +365,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>810.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -385,7 +385,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -394,7 +394,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>680.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="14">
@@ -405,7 +405,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -414,7 +414,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>800.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="15">
@@ -425,7 +425,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -434,7 +434,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>720.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="16">
@@ -450,7 +450,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>720.0</v>
+        <v>730.0</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -459,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="18">
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>800.0</v>
+        <v>810.0</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="19">
@@ -490,7 +490,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>680.0</v>
+        <v>800.0</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -499,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="20">
@@ -519,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="21">
@@ -530,7 +530,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>840.0</v>
+        <v>750.0</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>810.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -550,7 +550,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
@@ -559,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>730.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="23">
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
@@ -584,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>730.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="25">
@@ -595,7 +595,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>810.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -604,7 +604,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="26">
@@ -615,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -624,7 +624,7 @@
         <v>16</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>840.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="27">
@@ -635,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -655,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
@@ -664,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>680.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="29">
@@ -675,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>720.0</v>
+        <v>730.0</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -684,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>800.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="30">
@@ -700,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>800.0</v>
+        <v>810.0</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="32">
@@ -720,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>680.0</v>
+        <v>800.0</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -729,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>720.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="33">
@@ -749,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="34">
@@ -760,7 +760,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>840.0</v>
+        <v>750.0</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -769,7 +769,7 @@
         <v>9</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="35">
@@ -780,7 +780,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -789,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="36">
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>730.0</v>
+        <v>750.0</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
@@ -809,7 +809,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>810.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -825,7 +825,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>810.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -845,7 +845,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -854,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>730.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="40">
@@ -865,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -874,7 +874,7 @@
         <v>17</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="41">
@@ -885,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>840.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="42">
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>720.0</v>
+        <v>730.0</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -925,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>800.0</v>
+        <v>810.0</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -934,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>680.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="44">
@@ -950,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>680.0</v>
+        <v>800.0</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -959,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="46">
@@ -979,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>800.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="47">
@@ -990,7 +990,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>840.0</v>
+        <v>750.0</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -999,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>720.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="48">
@@ -1010,7 +1010,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -1019,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="49">
@@ -1030,7 +1030,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>730.0</v>
+        <v>750.0</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -1039,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="50">
@@ -1050,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>810.0</v>
+        <v>0.0</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -1059,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="51">
@@ -1075,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -1084,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="53">
@@ -1095,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -1104,7 +1104,7 @@
         <v>13</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>810.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -1115,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
@@ -1124,7 +1124,7 @@
         <v>15</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>730.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="55">
@@ -1135,7 +1135,7 @@
         <v>8</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>720.0</v>
+        <v>730.0</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -1144,7 +1144,7 @@
         <v>17</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="56">
@@ -1155,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>800.0</v>
+        <v>810.0</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
@@ -1164,7 +1164,7 @@
         <v>16</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>840.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="57">
@@ -1175,7 +1175,7 @@
         <v>12</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>680.0</v>
+        <v>800.0</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
@@ -1209,7 +1209,7 @@
         <v>7</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="60">
@@ -1220,7 +1220,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>840.0</v>
+        <v>750.0</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -1229,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>680.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="61">
@@ -1240,7 +1240,7 @@
         <v>17</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
@@ -1249,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>800.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="62">
@@ -1260,7 +1260,7 @@
         <v>15</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>730.0</v>
+        <v>750.0</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>6</v>
@@ -1269,7 +1269,7 @@
         <v>8</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>720.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="63">
@@ -1280,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>810.0</v>
+        <v>0.0</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
@@ -1289,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="64">
@@ -1300,7 +1300,7 @@
         <v>11</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>6</v>
@@ -1309,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="65">
@@ -1325,7 +1325,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
@@ -1334,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="67">
@@ -1345,7 +1345,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
@@ -1354,7 +1354,7 @@
         <v>11</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="68">
@@ -1365,7 +1365,7 @@
         <v>8</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>720.0</v>
+        <v>730.0</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
@@ -1374,7 +1374,7 @@
         <v>13</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>810.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -1385,7 +1385,7 @@
         <v>10</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>800.0</v>
+        <v>810.0</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
@@ -1394,7 +1394,7 @@
         <v>15</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>730.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="70">
@@ -1405,7 +1405,7 @@
         <v>12</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>680.0</v>
+        <v>800.0</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
@@ -1414,7 +1414,7 @@
         <v>17</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="71">
@@ -1434,7 +1434,7 @@
         <v>16</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>840.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="72">
@@ -1450,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>840.0</v>
+        <v>750.0</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
@@ -1459,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="74">
@@ -1470,7 +1470,7 @@
         <v>17</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
@@ -1490,7 +1490,7 @@
         <v>15</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>730.0</v>
+        <v>750.0</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>6</v>
@@ -1499,7 +1499,7 @@
         <v>12</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>680.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="76">
@@ -1510,7 +1510,7 @@
         <v>13</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>810.0</v>
+        <v>0.0</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
@@ -1519,7 +1519,7 @@
         <v>10</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>800.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="77">
@@ -1530,7 +1530,7 @@
         <v>11</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
@@ -1539,7 +1539,7 @@
         <v>8</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>720.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="78">
@@ -1550,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
@@ -1559,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -29,43 +29,43 @@
     <t>1 Тур</t>
   </si>
   <si>
+    <t>пропуск</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Котов</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Кротов</t>
+  </si>
+  <si>
     <t>Петров</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Котов</t>
+    <t>Перов</t>
   </si>
   <si>
     <t>Серов</t>
   </si>
   <si>
+    <t>Уткин</t>
+  </si>
+  <si>
+    <t>Якин</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Белов</t>
+  </si>
+  <si>
     <t>Амелин</t>
-  </si>
-  <si>
-    <t>Белов</t>
-  </si>
-  <si>
-    <t>Сидоров</t>
-  </si>
-  <si>
-    <t>Кротов</t>
-  </si>
-  <si>
-    <t>пропуск</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Перов</t>
-  </si>
-  <si>
-    <t>Якин</t>
-  </si>
-  <si>
-    <t>Уткин</t>
   </si>
   <si>
     <t>2 Тур</t>
@@ -200,7 +200,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>840.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -220,7 +220,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>730.0</v>
+        <v>850.0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -229,7 +229,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>680.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="5">
@@ -240,7 +240,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>810.0</v>
+        <v>840.0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -249,7 +249,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>720.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>800.0</v>
+        <v>730.0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -269,7 +269,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="7">
@@ -280,7 +280,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>850.0</v>
+        <v>750.0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -289,7 +289,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="8">
@@ -300,7 +300,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>750.0</v>
+        <v>810.0</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -309,7 +309,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="9">
@@ -322,19 +322,19 @@
         <v>7.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>900.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>750.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="11">
@@ -342,19 +342,19 @@
         <v>8.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>750.0</v>
+        <v>840.0</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="12">
@@ -362,19 +362,19 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.0</v>
+        <v>730.0</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>850.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="13">
@@ -382,19 +382,19 @@
         <v>10.0</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>720.0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F13" s="2" t="n">
-        <v>800.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="14">
@@ -402,19 +402,19 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>680.0</v>
+        <v>810.0</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>810.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="15">
@@ -422,19 +422,19 @@
         <v>12.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>840.0</v>
+        <v>680.0</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>730.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="16">
@@ -447,19 +447,19 @@
         <v>13.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>730.0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>900.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="18">
@@ -467,19 +467,19 @@
         <v>14.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>810.0</v>
+        <v>730.0</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>840.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="19">
@@ -487,19 +487,19 @@
         <v>15.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>800.0</v>
+        <v>750.0</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>680.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="20">
@@ -507,19 +507,19 @@
         <v>16.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>850.0</v>
+        <v>810.0</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>720.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="21">
@@ -527,19 +527,19 @@
         <v>17.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="22">
@@ -547,16 +547,16 @@
         <v>18.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>750.0</v>
@@ -572,19 +572,19 @@
         <v>19.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>900.0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>750.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="25">
@@ -592,19 +592,19 @@
         <v>20.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.0</v>
+        <v>750.0</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>750.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="26">
@@ -612,19 +612,19 @@
         <v>21.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>720.0</v>
+        <v>810.0</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>750.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="27">
@@ -632,7 +632,7 @@
         <v>22.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>680.0</v>
@@ -641,10 +641,10 @@
         <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>850.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="28">
@@ -652,16 +652,16 @@
         <v>23.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>840.0</v>
+        <v>720.0</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>800.0</v>
@@ -672,19 +672,19 @@
         <v>24.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>730.0</v>
+        <v>750.0</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>810.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="30">
@@ -697,19 +697,19 @@
         <v>25.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>810.0</v>
+        <v>0.0</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="32">
@@ -717,16 +717,16 @@
         <v>26.0</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>810.0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>730.0</v>
@@ -737,16 +737,16 @@
         <v>27.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>850.0</v>
+        <v>680.0</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>840.0</v>
@@ -757,19 +757,19 @@
         <v>28.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>750.0</v>
+        <v>720.0</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>680.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="35">
@@ -777,7 +777,7 @@
         <v>29.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>750.0</v>
@@ -786,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>720.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="36">
@@ -797,7 +797,7 @@
         <v>30.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>750.0</v>
@@ -806,10 +806,10 @@
         <v>6</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="37">
@@ -822,19 +822,19 @@
         <v>31.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>900.0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>0.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="39">
@@ -842,16 +842,16 @@
         <v>32.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>720.0</v>
+        <v>680.0</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>750.0</v>
@@ -862,19 +862,19 @@
         <v>33.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>680.0</v>
+        <v>720.0</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>750.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="41">
@@ -882,19 +882,19 @@
         <v>34.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2" t="n">
         <v>840.0</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>750.0</v>
       </c>
     </row>
     <row r="42">
@@ -902,16 +902,16 @@
         <v>35.0</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>730.0</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>850.0</v>
@@ -922,19 +922,19 @@
         <v>36.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>810.0</v>
+        <v>800.0</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>800.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="44">
@@ -947,19 +947,19 @@
         <v>37.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>800.0</v>
+        <v>0.0</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>900.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="46">
@@ -967,16 +967,16 @@
         <v>38.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>850.0</v>
+        <v>720.0</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>810.0</v>
@@ -987,7 +987,7 @@
         <v>39.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>750.0</v>
@@ -996,10 +996,10 @@
         <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>730.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="48">
@@ -1007,7 +1007,7 @@
         <v>40.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>750.0</v>
@@ -1016,10 +1016,10 @@
         <v>6</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>840.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="49">
@@ -1027,19 +1027,19 @@
         <v>41.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>750.0</v>
+        <v>800.0</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>680.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="50">
@@ -1047,19 +1047,19 @@
         <v>42.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.0</v>
+        <v>900.0</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>720.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="51">
@@ -1072,16 +1072,16 @@
         <v>43.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>900.0</v>
+        <v>0.0</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>720.0</v>
@@ -1092,19 +1092,19 @@
         <v>44.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2" t="n">
+        <v>750.0</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="2" t="n">
         <v>680.0</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="2" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -1112,19 +1112,19 @@
         <v>45.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>840.0</v>
+        <v>750.0</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>750.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="55">
@@ -1132,16 +1132,16 @@
         <v>46.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>730.0</v>
+        <v>800.0</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>750.0</v>
@@ -1152,19 +1152,19 @@
         <v>47.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>810.0</v>
+        <v>900.0</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>750.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="57">
@@ -1172,19 +1172,19 @@
         <v>48.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>800.0</v>
+        <v>850.0</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>850.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="58">
@@ -1197,19 +1197,19 @@
         <v>49.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>850.0</v>
+        <v>0.0</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="60">
@@ -1217,7 +1217,7 @@
         <v>50.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>750.0</v>
@@ -1226,10 +1226,10 @@
         <v>6</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>800.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="61">
@@ -1237,19 +1237,19 @@
         <v>51.0</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>750.0</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F61" s="2" t="n">
-        <v>810.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="62">
@@ -1257,19 +1257,19 @@
         <v>52.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>730.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="63">
@@ -1277,19 +1277,19 @@
         <v>53.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.0</v>
+        <v>850.0</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>840.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="64">
@@ -1297,19 +1297,19 @@
         <v>54.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>720.0</v>
+        <v>840.0</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>680.0</v>
+        <v>730.0</v>
       </c>
     </row>
     <row r="65">
@@ -1322,19 +1322,19 @@
         <v>55.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>900.0</v>
+        <v>0.0</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>680.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="67">
@@ -1342,19 +1342,19 @@
         <v>56.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>840.0</v>
+        <v>800.0</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>720.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="68">
@@ -1362,19 +1362,19 @@
         <v>57.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>730.0</v>
+        <v>900.0</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>0.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="69">
@@ -1382,19 +1382,19 @@
         <v>58.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>810.0</v>
+        <v>850.0</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>750.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="70">
@@ -1402,19 +1402,19 @@
         <v>59.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>800.0</v>
+        <v>840.0</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>750.0</v>
+        <v>810.0</v>
       </c>
     </row>
     <row r="71">
@@ -1422,16 +1422,16 @@
         <v>60.0</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>730.0</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>850.0</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F71" s="2" t="n">
         <v>750.0</v>
@@ -1447,19 +1447,19 @@
         <v>61.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>750.0</v>
+        <v>0.0</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>900.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="74">
@@ -1467,19 +1467,19 @@
         <v>62.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>750.0</v>
+        <v>900.0</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>850.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="75">
@@ -1487,19 +1487,19 @@
         <v>63.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>750.0</v>
+        <v>850.0</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>800.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="76">
@@ -1507,19 +1507,19 @@
         <v>64.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>810.0</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="77">
@@ -1527,19 +1527,19 @@
         <v>65.0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>720.0</v>
+        <v>730.0</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>730.0</v>
+        <v>680.0</v>
       </c>
     </row>
     <row r="78">
@@ -1547,19 +1547,19 @@
         <v>66.0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>680.0</v>
+        <v>750.0</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>840.0</v>
+        <v>810.0</v>
       </c>
     </row>
   </sheetData>
